--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H2">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I2">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J2">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N2">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O2">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P2">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q2">
-        <v>1963.75577584006</v>
+        <v>2004.199344213648</v>
       </c>
       <c r="R2">
-        <v>1963.75577584006</v>
+        <v>8016.797376854593</v>
       </c>
       <c r="S2">
-        <v>0.0301879142833789</v>
+        <v>0.02919868391806569</v>
       </c>
       <c r="T2">
-        <v>0.0301879142833789</v>
+        <v>0.01615665163350108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H3">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I3">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J3">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N3">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P3">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q3">
-        <v>4.010484633727045</v>
+        <v>4.457773670548667</v>
       </c>
       <c r="R3">
-        <v>4.010484633727045</v>
+        <v>26.746642023292</v>
       </c>
       <c r="S3">
-        <v>6.165133559236479E-05</v>
+        <v>6.49442006656753E-05</v>
       </c>
       <c r="T3">
-        <v>6.165133559236479E-05</v>
+        <v>5.390384179896024E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H4">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I4">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J4">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N4">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O4">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P4">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q4">
-        <v>634.4267484156244</v>
+        <v>715.8935615973041</v>
       </c>
       <c r="R4">
-        <v>634.4267484156244</v>
+        <v>4295.361369583825</v>
       </c>
       <c r="S4">
-        <v>0.009752750589395854</v>
+        <v>0.01042967601222291</v>
       </c>
       <c r="T4">
-        <v>0.009752750589395854</v>
+        <v>0.008656656021858026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H5">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I5">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J5">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N5">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O5">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P5">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q5">
-        <v>534.5886370493265</v>
+        <v>548.309418350433</v>
       </c>
       <c r="R5">
-        <v>534.5886370493265</v>
+        <v>3289.856510102598</v>
       </c>
       <c r="S5">
-        <v>0.008217985225382632</v>
+        <v>0.00798818413045348</v>
       </c>
       <c r="T5">
-        <v>0.008217985225382632</v>
+        <v>0.006630211923703131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H6">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I6">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J6">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N6">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O6">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P6">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q6">
-        <v>1336.540991211768</v>
+        <v>1370.888282600407</v>
       </c>
       <c r="R6">
-        <v>1336.540991211768</v>
+        <v>8225.329695602442</v>
       </c>
       <c r="S6">
-        <v>0.02054602989603593</v>
+        <v>0.01997213189705653</v>
       </c>
       <c r="T6">
-        <v>0.02054602989603593</v>
+        <v>0.0165769172171196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H7">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I7">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J7">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N7">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O7">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P7">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q7">
-        <v>52.1354406655568</v>
+        <v>56.72971941190651</v>
       </c>
       <c r="R7">
-        <v>52.1354406655568</v>
+        <v>226.918877647626</v>
       </c>
       <c r="S7">
-        <v>0.0008014541488820042</v>
+        <v>0.0008264812333419451</v>
       </c>
       <c r="T7">
-        <v>0.0008014541488820042</v>
+        <v>0.0004573209328955512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H8">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J8">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N8">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O8">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P8">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q8">
-        <v>7277.538258148585</v>
+        <v>7782.625085990047</v>
       </c>
       <c r="R8">
-        <v>7277.538258148585</v>
+        <v>46695.75051594029</v>
       </c>
       <c r="S8">
-        <v>0.111874248230801</v>
+        <v>0.1133831375580014</v>
       </c>
       <c r="T8">
-        <v>0.111874248230801</v>
+        <v>0.09410827521088409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H9">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J9">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N9">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P9">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q9">
-        <v>14.86256881570731</v>
+        <v>17.31024475995422</v>
       </c>
       <c r="R9">
-        <v>14.86256881570731</v>
+        <v>155.792202839588</v>
       </c>
       <c r="S9">
-        <v>0.0002284754341447878</v>
+        <v>0.0002521886691308968</v>
       </c>
       <c r="T9">
-        <v>0.0002284754341447878</v>
+        <v>0.0003139757973379818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H10">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J10">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N10">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O10">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P10">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q10">
-        <v>2351.140091039281</v>
+        <v>2779.928657032838</v>
       </c>
       <c r="R10">
-        <v>2351.140091039281</v>
+        <v>25019.35791329554</v>
       </c>
       <c r="S10">
-        <v>0.03614299517777214</v>
+        <v>0.04050009217188023</v>
       </c>
       <c r="T10">
-        <v>0.03614299517777214</v>
+        <v>0.05042275997470635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H11">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J11">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N11">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O11">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P11">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q11">
-        <v>1981.147200870077</v>
+        <v>2129.172752430458</v>
       </c>
       <c r="R11">
-        <v>1981.147200870077</v>
+        <v>19162.55477187412</v>
       </c>
       <c r="S11">
-        <v>0.03045526466092132</v>
+        <v>0.03101939055347162</v>
       </c>
       <c r="T11">
-        <v>0.03045526466092132</v>
+        <v>0.03861925246494471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H12">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J12">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N12">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O12">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P12">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q12">
-        <v>4953.125188373562</v>
+        <v>5323.377422040716</v>
       </c>
       <c r="R12">
-        <v>4953.125188373562</v>
+        <v>47910.39679836644</v>
       </c>
       <c r="S12">
-        <v>0.07614211525743424</v>
+        <v>0.07755496735965638</v>
       </c>
       <c r="T12">
-        <v>0.07614211525743424</v>
+        <v>0.09655621245072815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H13">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J13">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N13">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O13">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P13">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q13">
-        <v>193.2102090886108</v>
+        <v>220.290530825169</v>
       </c>
       <c r="R13">
-        <v>193.2102090886108</v>
+        <v>1321.743184951014</v>
       </c>
       <c r="S13">
-        <v>0.002970131674416391</v>
+        <v>0.003209358189981197</v>
       </c>
       <c r="T13">
-        <v>0.002970131674416391</v>
+        <v>0.002663774969523601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H14">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I14">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J14">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N14">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O14">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P14">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q14">
-        <v>7410.283925361708</v>
+        <v>7496.444506014705</v>
       </c>
       <c r="R14">
-        <v>7410.283925361708</v>
+        <v>44978.66703608823</v>
       </c>
       <c r="S14">
-        <v>0.1139148863145288</v>
+        <v>0.1092138435592214</v>
       </c>
       <c r="T14">
-        <v>0.1139148863145288</v>
+        <v>0.09064775122537029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H15">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I15">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J15">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N15">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P15">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q15">
-        <v>15.13366895203884</v>
+        <v>16.67371713204156</v>
       </c>
       <c r="R15">
-        <v>15.13366895203884</v>
+        <v>150.063454188374</v>
       </c>
       <c r="S15">
-        <v>0.0002326429318440817</v>
+        <v>0.0002429152557520344</v>
       </c>
       <c r="T15">
-        <v>0.0002326429318440817</v>
+        <v>0.0003024303644297263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H16">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I16">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J16">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N16">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O16">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P16">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q16">
-        <v>2394.025974840314</v>
+        <v>2677.705874029726</v>
       </c>
       <c r="R16">
-        <v>2394.025974840314</v>
+        <v>24099.35286626753</v>
       </c>
       <c r="S16">
-        <v>0.03680226014344676</v>
+        <v>0.03901083376115863</v>
       </c>
       <c r="T16">
-        <v>0.03680226014344676</v>
+        <v>0.04856862791334118</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H17">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I17">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J17">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N17">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O17">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P17">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q17">
-        <v>2017.284243053599</v>
+        <v>2050.879389146759</v>
       </c>
       <c r="R17">
-        <v>2017.284243053599</v>
+        <v>18457.91450232083</v>
       </c>
       <c r="S17">
-        <v>0.0310107827886398</v>
+        <v>0.02987875393266684</v>
       </c>
       <c r="T17">
-        <v>0.0310107827886398</v>
+        <v>0.03719915578207512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H18">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I18">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J18">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N18">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O18">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P18">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q18">
-        <v>5043.472485027699</v>
+        <v>5127.627630519895</v>
       </c>
       <c r="R18">
-        <v>5043.472485027699</v>
+        <v>46148.64867467905</v>
       </c>
       <c r="S18">
-        <v>0.07753098269231846</v>
+        <v>0.07470313712323534</v>
       </c>
       <c r="T18">
-        <v>0.07753098269231846</v>
+        <v>0.09300567358060903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H19">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I19">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J19">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N19">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O19">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P19">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q19">
-        <v>196.7344527556416</v>
+        <v>212.1900671412496</v>
       </c>
       <c r="R19">
-        <v>196.7344527556416</v>
+        <v>1273.140402847497</v>
       </c>
       <c r="S19">
-        <v>0.003024308251281483</v>
+        <v>0.003091344540600758</v>
       </c>
       <c r="T19">
-        <v>0.003024308251281483</v>
+        <v>0.002565823358431045</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H20">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I20">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J20">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N20">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O20">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P20">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q20">
-        <v>6508.097484437629</v>
+        <v>6744.819224156528</v>
       </c>
       <c r="R20">
-        <v>6508.097484437629</v>
+        <v>40468.91534493917</v>
       </c>
       <c r="S20">
-        <v>0.1000459891322445</v>
+        <v>0.09826360096326109</v>
       </c>
       <c r="T20">
-        <v>0.1000459891322445</v>
+        <v>0.08155902369461716</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H21">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I21">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J21">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N21">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P21">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q21">
-        <v>13.29117667138082</v>
+        <v>15.00193962085756</v>
       </c>
       <c r="R21">
-        <v>13.29117667138082</v>
+        <v>135.017456587718</v>
       </c>
       <c r="S21">
-        <v>0.0002043191454951922</v>
+        <v>0.0002185595431971317</v>
       </c>
       <c r="T21">
-        <v>0.0002043191454951922</v>
+        <v>0.0002721074149668735</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H22">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I22">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J22">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N22">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O22">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P22">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q22">
-        <v>2102.558360984269</v>
+        <v>2409.227740070878</v>
       </c>
       <c r="R22">
-        <v>2102.558360984269</v>
+        <v>21683.0496606379</v>
       </c>
       <c r="S22">
-        <v>0.03232166258049202</v>
+        <v>0.03509944231448982</v>
       </c>
       <c r="T22">
-        <v>0.03232166258049202</v>
+        <v>0.04369893153720711</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H23">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I23">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J23">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N23">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O23">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P23">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q23">
-        <v>1771.684140560371</v>
+        <v>1845.249533861663</v>
       </c>
       <c r="R23">
-        <v>1771.684140560371</v>
+        <v>16607.24580475497</v>
       </c>
       <c r="S23">
-        <v>0.02723528538042314</v>
+        <v>0.0268829834940018</v>
       </c>
       <c r="T23">
-        <v>0.02723528538042314</v>
+        <v>0.03346941084403748</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H24">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I24">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J24">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N24">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O24">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P24">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q24">
-        <v>4429.4403457742</v>
+        <v>4613.50996314291</v>
       </c>
       <c r="R24">
-        <v>4429.4403457742</v>
+        <v>41521.58966828619</v>
       </c>
       <c r="S24">
-        <v>0.06809174904876884</v>
+        <v>0.06721308414533476</v>
       </c>
       <c r="T24">
-        <v>0.06809174904876884</v>
+        <v>0.08368053076612585</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H25">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I25">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J25">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N25">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O25">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P25">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q25">
-        <v>172.7824480110872</v>
+        <v>190.9149921514215</v>
       </c>
       <c r="R25">
-        <v>172.7824480110872</v>
+        <v>1145.489952908529</v>
       </c>
       <c r="S25">
-        <v>0.002656105099423467</v>
+        <v>0.002781393241716932</v>
       </c>
       <c r="T25">
-        <v>0.002656105099423467</v>
+        <v>0.002308563039431594</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H26">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I26">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J26">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N26">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O26">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P26">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q26">
-        <v>1940.734804157136</v>
+        <v>2035.815800103024</v>
       </c>
       <c r="R26">
-        <v>1940.734804157136</v>
+        <v>12214.89480061814</v>
       </c>
       <c r="S26">
-        <v>0.02983402347453485</v>
+        <v>0.02965929623429492</v>
       </c>
       <c r="T26">
-        <v>0.02983402347453485</v>
+        <v>0.02461728677379675</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H27">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I27">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J27">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N27">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P27">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q27">
-        <v>3.963470002720631</v>
+        <v>4.528095520032667</v>
       </c>
       <c r="R27">
-        <v>3.963470002720631</v>
+        <v>40.752859680294</v>
       </c>
       <c r="S27">
-        <v>6.09286012949804E-05</v>
+        <v>6.596870227602919E-05</v>
       </c>
       <c r="T27">
-        <v>6.09286012949804E-05</v>
+        <v>8.213127087687463E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H28">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I28">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J28">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N28">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O28">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P28">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q28">
-        <v>626.9894079938409</v>
+        <v>727.1868579837521</v>
       </c>
       <c r="R28">
-        <v>626.9894079938409</v>
+        <v>6544.681721853768</v>
       </c>
       <c r="S28">
-        <v>0.00963841977600687</v>
+        <v>0.01059420525056088</v>
       </c>
       <c r="T28">
-        <v>0.00963841977600687</v>
+        <v>0.01318982352446841</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H29">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I29">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J29">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N29">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O29">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P29">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q29">
-        <v>528.3216918278612</v>
+        <v>556.9590572144789</v>
       </c>
       <c r="R29">
-        <v>528.3216918278612</v>
+        <v>5012.631514930311</v>
       </c>
       <c r="S29">
-        <v>0.008121646359067498</v>
+        <v>0.008114198577033287</v>
       </c>
       <c r="T29">
-        <v>0.008121646359067498</v>
+        <v>0.01010220632339511</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H30">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I30">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J30">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N30">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O30">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P30">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q30">
-        <v>1320.872814603303</v>
+        <v>1392.514189744441</v>
       </c>
       <c r="R30">
-        <v>1320.872814603303</v>
+        <v>12532.62770769997</v>
       </c>
       <c r="S30">
-        <v>0.02030517022384435</v>
+        <v>0.02028719438271354</v>
       </c>
       <c r="T30">
-        <v>0.02030517022384435</v>
+        <v>0.02525762975003831</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H31">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I31">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J31">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N31">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O31">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P31">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q31">
-        <v>51.52426053918638</v>
+        <v>57.6246367147095</v>
       </c>
       <c r="R31">
-        <v>51.52426053918638</v>
+        <v>345.7478202882571</v>
       </c>
       <c r="S31">
-        <v>0.0007920587579206804</v>
+        <v>0.0008395190619056526</v>
       </c>
       <c r="T31">
-        <v>0.0007920587579206804</v>
+        <v>0.0006968028282175988</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H32">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I32">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J32">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N32">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O32">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P32">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q32">
-        <v>3127.536959634575</v>
+        <v>3202.982382851184</v>
       </c>
       <c r="R32">
-        <v>3127.536959634575</v>
+        <v>12811.92953140473</v>
       </c>
       <c r="S32">
-        <v>0.04807818712342651</v>
+        <v>0.04666345713664449</v>
       </c>
       <c r="T32">
-        <v>0.04807818712342651</v>
+        <v>0.0258205206469977</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H33">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I33">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J33">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N33">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P33">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q33">
-        <v>6.387219364211528</v>
+        <v>7.124126936139334</v>
       </c>
       <c r="R33">
-        <v>6.387219364211528</v>
+        <v>42.744761616836</v>
       </c>
       <c r="S33">
-        <v>9.818778538969381E-05</v>
+        <v>0.0001037896410858897</v>
       </c>
       <c r="T33">
-        <v>9.818778538969381E-05</v>
+        <v>8.614565020617133E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H34">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I34">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J34">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N34">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O34">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P34">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q34">
-        <v>1010.407265639664</v>
+        <v>1144.095008519432</v>
       </c>
       <c r="R34">
-        <v>1010.407265639664</v>
+        <v>6864.570051116591</v>
       </c>
       <c r="S34">
-        <v>0.01553252614286273</v>
+        <v>0.01666803685094633</v>
       </c>
       <c r="T34">
-        <v>0.01553252614286273</v>
+        <v>0.01383451043054435</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H35">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I35">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J35">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N35">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O35">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P35">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q35">
-        <v>851.4020639135806</v>
+        <v>876.2728180698388</v>
       </c>
       <c r="R35">
-        <v>851.4020639135806</v>
+        <v>5257.636908419033</v>
       </c>
       <c r="S35">
-        <v>0.01308821231352976</v>
+        <v>0.01276620168282343</v>
       </c>
       <c r="T35">
-        <v>0.01308821231352976</v>
+        <v>0.01059597791382531</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H36">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I36">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J36">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N36">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O36">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P36">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q36">
-        <v>2128.615686079022</v>
+        <v>2190.865410021881</v>
       </c>
       <c r="R36">
-        <v>2128.615686079022</v>
+        <v>13145.19246013128</v>
       </c>
       <c r="S36">
-        <v>0.03272222985372031</v>
+        <v>0.03191817560410948</v>
       </c>
       <c r="T36">
-        <v>0.03272222985372031</v>
+        <v>0.02649216205050137</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H37">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I37">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J37">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N37">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O37">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P37">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q37">
-        <v>83.03248275290854</v>
+        <v>90.6617859071895</v>
       </c>
       <c r="R37">
-        <v>83.03248275290854</v>
+        <v>362.647143628758</v>
       </c>
       <c r="S37">
-        <v>0.001276420165337856</v>
+        <v>0.001320829107041747</v>
       </c>
       <c r="T37">
-        <v>0.001276420165337856</v>
+        <v>0.0007308608774883282</v>
       </c>
     </row>
   </sheetData>
